--- a/Thesis/Matlab Codes/World Wind Energy Capacity and Production/World Wind Energy Capacity.xlsx
+++ b/Thesis/Matlab Codes/World Wind Energy Capacity and Production/World Wind Energy Capacity.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Capacity" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Production" sheetId="2" r:id="rId3"/>
-    <sheet name="Productionpercap" sheetId="3" r:id="rId4"/>
+    <sheet name="2018" sheetId="5" r:id="rId1"/>
+    <sheet name="Capacity" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Production" sheetId="2" r:id="rId4"/>
+    <sheet name="Productionpercap" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="21">
   <si>
     <t>Country</t>
   </si>
@@ -108,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,9 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +161,377 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018'!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sweeden</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>164.06100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.875999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6359999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1230000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67FE-4EAE-B065-FA413A4297FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="253407760"/>
+        <c:axId val="253414000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="253407760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253414000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253414000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>GW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="tr-TR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253407760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -519,7 +902,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -933,7 +1316,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1308,7 +1691,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1810,6 +2193,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3822,7 +4245,547 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3857,7 +4820,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3894,7 +4857,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3931,7 +4894,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4229,10 +5192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D41"/>
+  <dimension ref="B1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,11 +5217,11 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>148983</v>
+        <v>164061</v>
       </c>
       <c r="D2">
-        <f>C2/1000</f>
-        <v>148.983</v>
+        <f t="shared" ref="D2:D16" si="0">C2/1000</f>
+        <v>164.06100000000001</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -4266,11 +5229,11 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>81312</v>
+        <v>87544</v>
       </c>
       <c r="D3">
-        <f>C3/1000</f>
-        <v>81.311999999999998</v>
+        <f t="shared" si="0"/>
+        <v>87.543999999999997</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -4278,11 +5241,11 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>49747</v>
+        <v>55876</v>
       </c>
       <c r="D4">
-        <f>C4/1000</f>
-        <v>49.747</v>
+        <f t="shared" si="0"/>
+        <v>55.875999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -4290,11 +5253,11 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>28875</v>
+        <v>32878</v>
       </c>
       <c r="D5">
-        <f>C5/1000</f>
-        <v>28.875</v>
+        <f t="shared" si="0"/>
+        <v>32.878</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -4302,11 +5265,11 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>22992</v>
+        <v>22988</v>
       </c>
       <c r="D6">
-        <f>C6/1000</f>
-        <v>22.992000000000001</v>
+        <f t="shared" si="0"/>
+        <v>22.988</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -4314,10 +5277,650 @@
         <v>13</v>
       </c>
       <c r="C7">
+        <v>20488</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>20.488</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>13113</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>13.113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>12313</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>12.313000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>12294</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12.294</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9636</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9.6359999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>6631</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6.6310000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6516</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6.516</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>5798</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>5.798</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>5521</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.5209999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>5123</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.1230000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>SUM(D2:D5)</f>
+        <v>340.35899999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>513.93899999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>164061</v>
+      </c>
+      <c r="D27">
+        <f>C27/1000</f>
+        <v>164.06100000000001</v>
+      </c>
+      <c r="E27">
+        <f>Capacity!D29</f>
+        <v>148.983</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>148.983</v>
+      </c>
+      <c r="H27" s="3">
+        <v>164.06100000000001</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>87544</v>
+      </c>
+      <c r="D28">
+        <f>C28/1000</f>
+        <v>87.543999999999997</v>
+      </c>
+      <c r="E28">
+        <f>Capacity!D41</f>
+        <v>81.311999999999998</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="3">
+        <v>81.311999999999998</v>
+      </c>
+      <c r="H28" s="3">
+        <v>87.543999999999997</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>55876</v>
+      </c>
+      <c r="D29">
+        <f>C29/1000</f>
+        <v>55.875999999999998</v>
+      </c>
+      <c r="E29">
+        <f>Capacity!D32</f>
+        <v>49.747</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>49.747</v>
+      </c>
+      <c r="H29" s="3">
+        <v>55.875999999999998</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>32878</v>
+      </c>
+      <c r="D30">
+        <f>C30/1000</f>
+        <v>32.878</v>
+      </c>
+      <c r="E30">
+        <f>Capacity!D33</f>
+        <v>28.875</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3">
+        <v>28.875</v>
+      </c>
+      <c r="H30" s="3">
+        <v>32.878</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>22988</v>
+      </c>
+      <c r="D31">
+        <f>C31/1000</f>
+        <v>22.988</v>
+      </c>
+      <c r="E31">
+        <f>Capacity!D37</f>
+        <v>22.992000000000001</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3">
+        <v>22.992000000000001</v>
+      </c>
+      <c r="H31" s="3">
+        <v>22.988</v>
+      </c>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>20488</v>
+      </c>
+      <c r="D32">
+        <f>C32/1000</f>
+        <v>20.488</v>
+      </c>
+      <c r="E32">
+        <f>Capacity!D40</f>
+        <v>15.2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>20.488</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>13113</v>
+      </c>
+      <c r="D33">
+        <f>C33/1000</f>
+        <v>13.113</v>
+      </c>
+      <c r="E33">
+        <f>Capacity!D31</f>
+        <v>11.861000000000001</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3">
+        <v>11.861000000000001</v>
+      </c>
+      <c r="H33" s="3">
+        <v>13.113</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>12313</v>
+      </c>
+      <c r="D34">
+        <f>C34/1000</f>
+        <v>12.313000000000001</v>
+      </c>
+      <c r="E34">
+        <f>Capacity!D28</f>
+        <v>11.9</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="H34" s="3">
+        <v>12.313000000000001</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>12294</v>
+      </c>
+      <c r="D35">
+        <f>C35/1000</f>
+        <v>12.294</v>
+      </c>
+      <c r="E35">
+        <f>Capacity!D27</f>
+        <v>10.74</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="H35" s="3">
+        <v>12.294</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>9636</v>
+      </c>
+      <c r="D36">
+        <f>C36/1000</f>
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="E36">
+        <f>Capacity!D34</f>
+        <v>9.2569999999999997</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9.2569999999999997</v>
+      </c>
+      <c r="H36" s="3">
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>6631</v>
+      </c>
+      <c r="D37">
+        <f>C37/1000</f>
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="E37">
+        <f>Capacity!D38</f>
+        <v>6.3330000000000002</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3">
+        <v>6.3330000000000002</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>6516</v>
+      </c>
+      <c r="D38">
+        <f>C38/1000</f>
+        <v>6.516</v>
+      </c>
+      <c r="E38">
+        <f>Capacity!D39</f>
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6.516</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>5798</v>
+      </c>
+      <c r="D39">
+        <f>C39/1000</f>
+        <v>5.798</v>
+      </c>
+      <c r="E39">
+        <f>Capacity!D35</f>
+        <v>5.8070000000000004</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5.8070000000000004</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5.798</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>5521</v>
+      </c>
+      <c r="D40">
+        <f>C40/1000</f>
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="E40">
+        <f>Capacity!D30</f>
+        <v>5.242</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5.242</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>5123</v>
+      </c>
+      <c r="D41">
+        <f>C41/1000</f>
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="E41">
+        <f>Capacity!D36</f>
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="J41" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="B27:E41">
+    <sortCondition descending="1" ref="D27:D41"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>148983</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D16" si="0">C2/1000</f>
+        <v>148.983</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>81312</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>81.311999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>49747</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>49.747</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>28875</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>28.875</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>22992</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>22.992000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
         <v>15200</v>
       </c>
       <c r="D7">
-        <f>C7/1000</f>
+        <f t="shared" si="0"/>
         <v>15.2</v>
       </c>
     </row>
@@ -4329,7 +5932,7 @@
         <v>11900</v>
       </c>
       <c r="D8">
-        <f>C8/1000</f>
+        <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
     </row>
@@ -4341,7 +5944,7 @@
         <v>11861</v>
       </c>
       <c r="D9">
-        <f>C9/1000</f>
+        <f t="shared" si="0"/>
         <v>11.861000000000001</v>
       </c>
     </row>
@@ -4353,7 +5956,7 @@
         <v>10740</v>
       </c>
       <c r="D10">
-        <f>C10/1000</f>
+        <f t="shared" si="0"/>
         <v>10.74</v>
       </c>
     </row>
@@ -4365,7 +5968,7 @@
         <v>9257</v>
       </c>
       <c r="D11">
-        <f>C11/1000</f>
+        <f t="shared" si="0"/>
         <v>9.2569999999999997</v>
       </c>
     </row>
@@ -4377,7 +5980,7 @@
         <v>6333</v>
       </c>
       <c r="D12">
-        <f>C12/1000</f>
+        <f t="shared" si="0"/>
         <v>6.3330000000000002</v>
       </c>
     </row>
@@ -4389,7 +5992,7 @@
         <v>5807</v>
       </c>
       <c r="D13">
-        <f>C13/1000</f>
+        <f t="shared" si="0"/>
         <v>5.8070000000000004</v>
       </c>
     </row>
@@ -4401,7 +6004,7 @@
         <v>5751</v>
       </c>
       <c r="D14">
-        <f>C14/1000</f>
+        <f t="shared" si="0"/>
         <v>5.7510000000000003</v>
       </c>
     </row>
@@ -4413,7 +6016,7 @@
         <v>5303</v>
       </c>
       <c r="D15">
-        <f>C15/1000</f>
+        <f t="shared" si="0"/>
         <v>5.3029999999999999</v>
       </c>
     </row>
@@ -4425,7 +6028,7 @@
         <v>5242</v>
       </c>
       <c r="D16">
-        <f>C16/1000</f>
+        <f t="shared" si="0"/>
         <v>5.242</v>
       </c>
     </row>
@@ -4454,7 +6057,11 @@
         <v>15</v>
       </c>
       <c r="C27">
-        <v>122951</v>
+        <v>10740</v>
+      </c>
+      <c r="D27">
+        <f>C27/1000</f>
+        <v>10.74</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -4462,7 +6069,11 @@
         <v>14</v>
       </c>
       <c r="C28">
-        <v>97517</v>
+        <v>11900</v>
+      </c>
+      <c r="D28">
+        <f>C28/1000</f>
+        <v>11.9</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -4470,108 +6081,160 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>545916</v>
+        <v>148983</v>
+      </c>
+      <c r="D29">
+        <f>C29/1000</f>
+        <v>148.983</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C30">
-        <v>44666</v>
+        <v>5242</v>
+      </c>
+      <c r="D30">
+        <f>C30/1000</f>
+        <v>5.242</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>104704</v>
+        <v>11861</v>
+      </c>
+      <c r="D31">
+        <f>C31/1000</f>
+        <v>11.861000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>49747</v>
+      </c>
+      <c r="D32">
+        <f>C32/1000</f>
+        <v>49.747</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>90748</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C33">
+        <v>28875</v>
+      </c>
+      <c r="D33">
+        <f>C33/1000</f>
+        <v>28.875</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
-        <v>51070</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
       <c r="C34">
-        <v>75125</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>9257</v>
+      </c>
+      <c r="D34">
+        <f>C34/1000</f>
+        <v>9.2569999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>32744</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+        <v>5807</v>
+      </c>
+      <c r="D35">
+        <f>C35/1000</f>
+        <v>5.8070000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>51350</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+        <v>5303</v>
+      </c>
+      <c r="D36">
+        <f>C36/1000</f>
+        <v>5.3029999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37">
-        <v>47954</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22992</v>
+      </c>
+      <c r="D37">
+        <f>C37/1000</f>
+        <v>22.992000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>27877</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+        <v>6333</v>
+      </c>
+      <c r="D38">
+        <f>C38/1000</f>
+        <v>6.3330000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>34467</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+        <v>5751</v>
+      </c>
+      <c r="D39">
+        <f>C39/1000</f>
+        <v>5.7510000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40">
-        <v>33516</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+        <v>15200</v>
+      </c>
+      <c r="D40">
+        <f>C40/1000</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41">
-        <v>214766</v>
+        <v>81312</v>
+      </c>
+      <c r="D41">
+        <f>C41/1000</f>
+        <v>81.311999999999998</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:D17">
-    <sortCondition descending="1" ref="C2"/>
+  <sortState ref="B27:D41">
+    <sortCondition ref="B27:B41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4579,7 +6242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4594,7 +6257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D42"/>
   <sheetViews>
@@ -4624,7 +6287,7 @@
         <v>190719</v>
       </c>
       <c r="D2">
-        <f>C2/1000</f>
+        <f t="shared" ref="D2:D16" si="0">C2/1000</f>
         <v>190.71899999999999</v>
       </c>
     </row>
@@ -4637,7 +6300,7 @@
         <v>180665</v>
       </c>
       <c r="D3">
-        <f>C3/1000</f>
+        <f t="shared" si="0"/>
         <v>180.66499999999999</v>
       </c>
     </row>
@@ -4650,7 +6313,7 @@
         <v>79206</v>
       </c>
       <c r="D4">
-        <f>C4/1000</f>
+        <f t="shared" si="0"/>
         <v>79.206000000000003</v>
       </c>
     </row>
@@ -4663,7 +6326,7 @@
         <v>49325</v>
       </c>
       <c r="D5">
-        <f>C5/1000</f>
+        <f t="shared" si="0"/>
         <v>49.325000000000003</v>
       </c>
     </row>
@@ -4676,7 +6339,7 @@
         <v>40310</v>
       </c>
       <c r="D6">
-        <f>C6/1000</f>
+        <f t="shared" si="0"/>
         <v>40.31</v>
       </c>
     </row>
@@ -4689,7 +6352,7 @@
         <v>37361</v>
       </c>
       <c r="D7">
-        <f>C7/1000</f>
+        <f t="shared" si="0"/>
         <v>37.360999999999997</v>
       </c>
     </row>
@@ -4702,7 +6365,7 @@
         <v>26446</v>
       </c>
       <c r="D8">
-        <f>C8/1000</f>
+        <f t="shared" si="0"/>
         <v>26.446000000000002</v>
       </c>
     </row>
@@ -4715,7 +6378,7 @@
         <v>21626</v>
       </c>
       <c r="D9">
-        <f>C9/1000</f>
+        <f t="shared" si="0"/>
         <v>21.626000000000001</v>
       </c>
     </row>
@@ -4728,7 +6391,7 @@
         <v>21249</v>
       </c>
       <c r="D10">
-        <f>C10/1000</f>
+        <f t="shared" si="0"/>
         <v>21.248999999999999</v>
       </c>
     </row>
@@ -4741,7 +6404,7 @@
         <v>16268</v>
       </c>
       <c r="D11">
-        <f>C11/1000</f>
+        <f t="shared" si="0"/>
         <v>16.268000000000001</v>
       </c>
     </row>
@@ -4754,7 +6417,7 @@
         <v>14844</v>
       </c>
       <c r="D12">
-        <f>C12/1000</f>
+        <f t="shared" si="0"/>
         <v>14.843999999999999</v>
       </c>
     </row>
@@ -4767,7 +6430,7 @@
         <v>14126</v>
       </c>
       <c r="D13">
-        <f>C13/1000</f>
+        <f t="shared" si="0"/>
         <v>14.125999999999999</v>
       </c>
     </row>
@@ -4780,7 +6443,7 @@
         <v>11652</v>
       </c>
       <c r="D14">
-        <f>C14/1000</f>
+        <f t="shared" si="0"/>
         <v>11.651999999999999</v>
       </c>
     </row>
@@ -4793,7 +6456,7 @@
         <v>11608</v>
       </c>
       <c r="D15">
-        <f>C15/1000</f>
+        <f t="shared" si="0"/>
         <v>11.608000000000001</v>
       </c>
     </row>
@@ -4806,7 +6469,7 @@
         <v>10858</v>
       </c>
       <c r="D16">
-        <f>C16/1000</f>
+        <f t="shared" si="0"/>
         <v>10.858000000000001</v>
       </c>
     </row>
@@ -4948,7 +6611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C35"/>
   <sheetViews>
@@ -4976,7 +6639,7 @@
       </c>
       <c r="C2">
         <f>Production!C28/Capacity!C27</f>
-        <v>3.5013135314068204</v>
+        <v>40.082867783985101</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -4985,7 +6648,7 @@
       </c>
       <c r="C3">
         <f>Production!C29/Capacity!C28</f>
-        <v>4.3331214044730659</v>
+        <v>35.508655462184876</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -4994,7 +6657,7 @@
       </c>
       <c r="C4">
         <f>Production!C30/Capacity!C29</f>
-        <v>2.5127711955685492</v>
+        <v>9.2075068967600338</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -5003,7 +6666,7 @@
       </c>
       <c r="C5">
         <f>Production!C31/Capacity!C30</f>
-        <v>2.0005820982402724</v>
+        <v>17.046547119420069</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -5012,7 +6675,7 @@
       </c>
       <c r="C6">
         <f>Production!C32/Capacity!C31</f>
-        <v>1.7860349174816625</v>
+        <v>15.766377202596745</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -5021,7 +6684,7 @@
       </c>
       <c r="C7">
         <f>Production!C33/Capacity!C32</f>
-        <v>2.3195332128531758</v>
+        <v>4.231270227350393</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -5030,7 +6693,7 @@
       </c>
       <c r="C8">
         <f>Production!C34/Capacity!C33</f>
-        <v>2.1327002153906403</v>
+        <v>3.7720173160173158</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -5039,7 +6702,7 @@
       </c>
       <c r="C9">
         <f>Production!C35/Capacity!C34</f>
-        <v>2.2196472545757073</v>
+        <v>18.013503294803932</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -5048,7 +6711,7 @@
       </c>
       <c r="C10">
         <f>Production!C36/Capacity!C35</f>
-        <v>4.2951075006107988</v>
+        <v>24.218873773032549</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -5057,7 +6720,7 @@
       </c>
       <c r="C11">
         <f>Production!C37/Capacity!C36</f>
-        <v>3.2836806231742939</v>
+        <v>31.796530265887235</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -5066,7 +6729,7 @@
       </c>
       <c r="C12">
         <f>Production!C38/Capacity!C37</f>
-        <v>2.024627768277933</v>
+        <v>4.2227296450939455</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -5075,7 +6738,7 @@
       </c>
       <c r="C13">
         <f>Production!C39/Capacity!C38</f>
-        <v>3.6748215374681639</v>
+        <v>16.176061897994632</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -5084,7 +6747,7 @@
       </c>
       <c r="C14">
         <f>Production!C40/Capacity!C39</f>
-        <v>2.4245800330751153</v>
+        <v>14.531038080333856</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -5093,7 +6756,7 @@
       </c>
       <c r="C15">
         <f>Production!C41/Capacity!C40</f>
-        <v>2.4747284878863827</v>
+        <v>5.4567763157894733</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -5102,7 +6765,7 @@
       </c>
       <c r="C16">
         <f>Production!C42/Capacity!C41</f>
-        <v>2.61890150209996</v>
+        <v>6.9171954939000395</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">

--- a/Thesis/Matlab Codes/World Wind Energy Capacity and Production/World Wind Energy Capacity.xlsx
+++ b/Thesis/Matlab Codes/World Wind Energy Capacity and Production/World Wind Energy Capacity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="5" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Production" sheetId="2" r:id="rId4"/>
     <sheet name="Productionpercap" sheetId="3" r:id="rId5"/>
+    <sheet name="2018 (2)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -61,9 +62,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>Sweeden</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
@@ -86,6 +84,12 @@
   </si>
   <si>
     <t>Portugal</t>
+  </si>
+  <si>
+    <t>Prod/Cap</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
 </sst>
 </file>
@@ -176,7 +180,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11651358983962853"/>
+          <c:y val="5.3998505661244901E-2"/>
+          <c:w val="0.88348641016037144"/>
+          <c:h val="0.78510514652821684"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -230,7 +244,7 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweeden</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Turkey</c:v>
@@ -601,7 +615,7 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweeden</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Poland</c:v>
@@ -985,7 +999,7 @@
                   <c:v>Italy</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Sweeden</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Poland</c:v>
@@ -1446,7 +1460,7 @@
                   <c:v>France</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Sweeden</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Italy</c:v>
@@ -1706,6 +1720,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1767,7 +1782,7 @@
                   <c:v>Norway</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Sweeden</c:v>
+                  <c:v>Sweden</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Brazil</c:v>
@@ -1985,6 +2000,387 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="327511168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11651358983962853"/>
+          <c:y val="5.3998505661244901E-2"/>
+          <c:w val="0.88348641016037144"/>
+          <c:h val="0.78510514652821684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018 (2)'!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>USA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Canada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sweden</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 (2)'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>164.06100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.875999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.313000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6359999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1230000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5170-42C4-8556-9A02F678F29A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="253407760"/>
+        <c:axId val="253414000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="253407760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253414000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253414000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>GW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="tr-TR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253407760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2233,6 +2629,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4246,6 +4682,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4929,6 +5868,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5192,10 +6168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L41"/>
+  <dimension ref="B1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5226,7 +6202,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>87544</v>
@@ -5274,7 +6250,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>20488</v>
@@ -5298,7 +6274,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>12313</v>
@@ -5310,7 +6286,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>12294</v>
@@ -5334,7 +6310,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>6631</v>
@@ -5358,7 +6334,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>5798</v>
@@ -5370,7 +6346,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>5521</v>
@@ -5382,7 +6358,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>5123</v>
@@ -5392,18 +6368,18 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D17">
         <f>SUM(D2:D5)</f>
         <v>340.35899999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>513.93899999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -5425,12 +6401,26 @@
       <c r="H26" s="2">
         <v>2018</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>2</v>
       </c>
@@ -5438,7 +6428,7 @@
         <v>164061</v>
       </c>
       <c r="D27">
-        <f>C27/1000</f>
+        <f t="shared" ref="D27:D41" si="1">C27/1000</f>
         <v>164.06100000000001</v>
       </c>
       <c r="E27">
@@ -5446,25 +6436,49 @@
         <v>148.983</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G27" s="3">
-        <v>148.983</v>
+        <v>10.74</v>
       </c>
       <c r="H27" s="3">
-        <v>164.06100000000001</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <v>12.294</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="4">
+        <v>21626</v>
+      </c>
+      <c r="K27">
+        <v>21.626000000000001</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L41" si="2">K27/G27</f>
+        <v>2.0135940409683428</v>
+      </c>
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="4">
+        <v>14126</v>
+      </c>
+      <c r="Q27">
+        <v>14.125999999999999</v>
+      </c>
+      <c r="R27">
+        <v>2.6947729874093858</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>87544</v>
       </c>
       <c r="D28">
-        <f>C28/1000</f>
+        <f t="shared" si="1"/>
         <v>87.543999999999997</v>
       </c>
       <c r="E28">
@@ -5472,17 +6486,41 @@
         <v>81.311999999999998</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3">
-        <v>81.311999999999998</v>
+        <v>11.9</v>
       </c>
       <c r="H28" s="3">
-        <v>87.543999999999997</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+        <v>12.313000000000001</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4">
+        <v>26446</v>
+      </c>
+      <c r="K28">
+        <v>26.446000000000002</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>2.2223529411764709</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="4">
+        <v>40310</v>
+      </c>
+      <c r="Q28">
+        <v>40.31</v>
+      </c>
+      <c r="R28">
+        <v>2.6519736842105264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>8</v>
       </c>
@@ -5490,7 +6528,7 @@
         <v>55876</v>
       </c>
       <c r="D29">
-        <f>C29/1000</f>
+        <f t="shared" si="1"/>
         <v>55.875999999999998</v>
       </c>
       <c r="E29">
@@ -5498,17 +6536,41 @@
         <v>49.747</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G29" s="3">
-        <v>49.747</v>
+        <v>148.983</v>
       </c>
       <c r="H29" s="3">
-        <v>55.875999999999998</v>
-      </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <v>164.06100000000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>180665</v>
+      </c>
+      <c r="K29">
+        <v>180.66499999999999</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>1.212655135149648</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="4">
+        <v>16268</v>
+      </c>
+      <c r="Q29">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="R29">
+        <v>2.5687667771988001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -5516,7 +6578,7 @@
         <v>32878</v>
       </c>
       <c r="D30">
-        <f>C30/1000</f>
+        <f t="shared" si="1"/>
         <v>32.878</v>
       </c>
       <c r="E30">
@@ -5524,17 +6586,41 @@
         <v>28.875</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G30" s="3">
-        <v>28.875</v>
+        <v>5.242</v>
       </c>
       <c r="H30" s="3">
-        <v>32.878</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="4">
+        <v>14126</v>
+      </c>
+      <c r="K30">
+        <v>14.125999999999999</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>2.6947729874093858</v>
+      </c>
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="4">
+        <v>190719</v>
+      </c>
+      <c r="Q30">
+        <v>190.71899999999999</v>
+      </c>
+      <c r="R30">
+        <v>2.345520956316411</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -5542,7 +6628,7 @@
         <v>22988</v>
       </c>
       <c r="D31">
-        <f>C31/1000</f>
+        <f t="shared" si="1"/>
         <v>22.988</v>
       </c>
       <c r="E31">
@@ -5550,25 +6636,49 @@
         <v>22.992000000000001</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G31" s="3">
-        <v>22.992000000000001</v>
+        <v>11.861000000000001</v>
       </c>
       <c r="H31" s="3">
-        <v>22.988</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+        <v>13.113</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="4">
+        <v>21249</v>
+      </c>
+      <c r="K31">
+        <v>21.248999999999999</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1.7915015597335804</v>
+      </c>
+      <c r="O31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="4">
+        <v>26446</v>
+      </c>
+      <c r="Q31">
+        <v>26.446000000000002</v>
+      </c>
+      <c r="R31">
+        <v>2.2223529411764709</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>20488</v>
       </c>
       <c r="D32">
-        <f>C32/1000</f>
+        <f t="shared" si="1"/>
         <v>20.488</v>
       </c>
       <c r="E32">
@@ -5576,17 +6686,41 @@
         <v>15.2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G32" s="3">
-        <v>15.2</v>
+        <v>49.747</v>
       </c>
       <c r="H32" s="3">
-        <v>20.488</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>55.875999999999998</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="4">
+        <v>79206</v>
+      </c>
+      <c r="K32">
+        <v>79.206000000000003</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1.5921764126479989</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="4">
+        <v>11608</v>
+      </c>
+      <c r="Q32">
+        <v>11.608000000000001</v>
+      </c>
+      <c r="R32">
+        <v>2.1889496511408639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +6728,7 @@
         <v>13113</v>
       </c>
       <c r="D33">
-        <f>C33/1000</f>
+        <f t="shared" si="1"/>
         <v>13.113</v>
       </c>
       <c r="E33">
@@ -5602,25 +6736,49 @@
         <v>11.861000000000001</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G33" s="3">
-        <v>11.861000000000001</v>
+        <v>28.875</v>
       </c>
       <c r="H33" s="3">
-        <v>13.113</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+        <v>32.878</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>37361</v>
+      </c>
+      <c r="K33">
+        <v>37.360999999999997</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>1.2938874458874459</v>
+      </c>
+      <c r="O33" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="4">
+        <v>49325</v>
+      </c>
+      <c r="Q33">
+        <v>49.325000000000003</v>
+      </c>
+      <c r="R33">
+        <v>2.1453114126652748</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>12313</v>
       </c>
       <c r="D34">
-        <f>C34/1000</f>
+        <f t="shared" si="1"/>
         <v>12.313000000000001</v>
       </c>
       <c r="E34">
@@ -5628,25 +6786,49 @@
         <v>11.9</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9.2569999999999997</v>
+      </c>
+      <c r="H34" s="3">
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4">
+        <v>14844</v>
+      </c>
+      <c r="K34">
+        <v>14.843999999999999</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>1.6035432645565517</v>
+      </c>
+      <c r="O34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="4">
+        <v>11652</v>
+      </c>
+      <c r="Q34">
+        <v>11.651999999999999</v>
+      </c>
+      <c r="R34">
+        <v>2.0260824204486174</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>14</v>
-      </c>
-      <c r="G34" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="H34" s="3">
-        <v>12.313000000000001</v>
-      </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>15</v>
       </c>
       <c r="C35">
         <v>12294</v>
       </c>
       <c r="D35">
-        <f>C35/1000</f>
+        <f t="shared" si="1"/>
         <v>12.294</v>
       </c>
       <c r="E35">
@@ -5654,17 +6836,41 @@
         <v>10.74</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G35" s="3">
-        <v>10.74</v>
+        <v>5.8070000000000004</v>
       </c>
       <c r="H35" s="3">
-        <v>12.294</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>5.798</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10858</v>
+      </c>
+      <c r="K35">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>1.8698122955054244</v>
+      </c>
+      <c r="O35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="4">
+        <v>21626</v>
+      </c>
+      <c r="Q35">
+        <v>21.626000000000001</v>
+      </c>
+      <c r="R35">
+        <v>2.0135940409683428</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>9</v>
       </c>
@@ -5672,7 +6878,7 @@
         <v>9636</v>
       </c>
       <c r="D36">
-        <f>C36/1000</f>
+        <f t="shared" si="1"/>
         <v>9.6359999999999992</v>
       </c>
       <c r="E36">
@@ -5680,25 +6886,49 @@
         <v>9.2569999999999997</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G36" s="3">
-        <v>9.2569999999999997</v>
+        <v>5.3029999999999999</v>
       </c>
       <c r="H36" s="3">
-        <v>9.6359999999999992</v>
-      </c>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="4">
+        <v>11608</v>
+      </c>
+      <c r="K36">
+        <v>11.608000000000001</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>2.1889496511408639</v>
+      </c>
+      <c r="O36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="4">
+        <v>10858</v>
+      </c>
+      <c r="Q36">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="R36">
+        <v>1.8698122955054244</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>6631</v>
       </c>
       <c r="D37">
-        <f>C37/1000</f>
+        <f t="shared" si="1"/>
         <v>6.6310000000000002</v>
       </c>
       <c r="E37">
@@ -5706,17 +6936,41 @@
         <v>6.3330000000000002</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="3">
-        <v>6.3330000000000002</v>
+        <v>22.992000000000001</v>
       </c>
       <c r="H37" s="3">
-        <v>6.6310000000000002</v>
-      </c>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>22.988</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="4">
+        <v>49325</v>
+      </c>
+      <c r="K37">
+        <v>49.325000000000003</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>2.1453114126652748</v>
+      </c>
+      <c r="O37" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="4">
+        <v>21249</v>
+      </c>
+      <c r="Q37">
+        <v>21.248999999999999</v>
+      </c>
+      <c r="R37">
+        <v>1.7915015597335804</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>6</v>
       </c>
@@ -5724,7 +6978,7 @@
         <v>6516</v>
       </c>
       <c r="D38">
-        <f>C38/1000</f>
+        <f t="shared" si="1"/>
         <v>6.516</v>
       </c>
       <c r="E38">
@@ -5732,25 +6986,49 @@
         <v>5.7510000000000003</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G38" s="3">
-        <v>5.7510000000000003</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="H38" s="3">
-        <v>6.516</v>
-      </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="4">
+        <v>16268</v>
+      </c>
+      <c r="K38">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>2.5687667771988001</v>
+      </c>
+      <c r="O38" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="4">
+        <v>14844</v>
+      </c>
+      <c r="Q38">
+        <v>14.843999999999999</v>
+      </c>
+      <c r="R38">
+        <v>1.6035432645565517</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>5798</v>
       </c>
       <c r="D39">
-        <f>C39/1000</f>
+        <f t="shared" si="1"/>
         <v>5.798</v>
       </c>
       <c r="E39">
@@ -5758,25 +7036,49 @@
         <v>5.8070000000000004</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G39" s="3">
-        <v>5.8070000000000004</v>
+        <v>5.7510000000000003</v>
       </c>
       <c r="H39" s="3">
-        <v>5.798</v>
-      </c>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>6.516</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="4">
+        <v>11652</v>
+      </c>
+      <c r="K39">
+        <v>11.651999999999999</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>2.0260824204486174</v>
+      </c>
+      <c r="O39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="4">
+        <v>79206</v>
+      </c>
+      <c r="Q39">
+        <v>79.206000000000003</v>
+      </c>
+      <c r="R39">
+        <v>1.5921764126479989</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40">
         <v>5521</v>
       </c>
       <c r="D40">
-        <f>C40/1000</f>
+        <f t="shared" si="1"/>
         <v>5.5209999999999999</v>
       </c>
       <c r="E40">
@@ -5784,25 +7086,49 @@
         <v>5.242</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G40" s="3">
-        <v>5.242</v>
+        <v>15.2</v>
       </c>
       <c r="H40" s="3">
-        <v>5.5209999999999999</v>
-      </c>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>20.488</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="4">
+        <v>40310</v>
+      </c>
+      <c r="K40">
+        <v>40.31</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>2.6519736842105264</v>
+      </c>
+      <c r="O40" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="4">
+        <v>37361</v>
+      </c>
+      <c r="Q40">
+        <v>37.360999999999997</v>
+      </c>
+      <c r="R40">
+        <v>1.2938874458874459</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>5123</v>
       </c>
       <c r="D41">
-        <f>C41/1000</f>
+        <f t="shared" si="1"/>
         <v>5.1230000000000002</v>
       </c>
       <c r="E41">
@@ -5810,20 +7136,41 @@
         <v>5.3029999999999999</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G41" s="3">
-        <v>5.3029999999999999</v>
+        <v>81.311999999999998</v>
       </c>
       <c r="H41" s="3">
-        <v>5.1230000000000002</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>87.543999999999997</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="4">
+        <v>190719</v>
+      </c>
+      <c r="K41">
+        <v>190.71899999999999</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>2.345520956316411</v>
+      </c>
+      <c r="O41" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="4">
+        <v>180665</v>
+      </c>
+      <c r="Q41">
+        <v>180.66499999999999</v>
+      </c>
+      <c r="R41">
+        <v>1.212655135149648</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B27:E41">
-    <sortCondition descending="1" ref="D27:D41"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5834,8 +7181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5866,7 +7213,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>81312</v>
@@ -5914,7 +7261,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>15200</v>
@@ -5926,7 +7273,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>11900</v>
@@ -5950,7 +7297,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>10740</v>
@@ -5974,7 +7321,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>6333</v>
@@ -5986,7 +7333,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>5807</v>
@@ -6010,7 +7357,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>5303</v>
@@ -6022,7 +7369,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>5242</v>
@@ -6054,25 +7401,25 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>10740</v>
       </c>
       <c r="D27">
-        <f>C27/1000</f>
+        <f t="shared" ref="D27:D41" si="1">C27/1000</f>
         <v>10.74</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>11900</v>
       </c>
       <c r="D28">
-        <f>C28/1000</f>
+        <f t="shared" si="1"/>
         <v>11.9</v>
       </c>
     </row>
@@ -6084,19 +7431,19 @@
         <v>148983</v>
       </c>
       <c r="D29">
-        <f>C29/1000</f>
+        <f t="shared" si="1"/>
         <v>148.983</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>5242</v>
       </c>
       <c r="D30">
-        <f>C30/1000</f>
+        <f t="shared" si="1"/>
         <v>5.242</v>
       </c>
     </row>
@@ -6108,7 +7455,7 @@
         <v>11861</v>
       </c>
       <c r="D31">
-        <f>C31/1000</f>
+        <f t="shared" si="1"/>
         <v>11.861000000000001</v>
       </c>
     </row>
@@ -6120,7 +7467,7 @@
         <v>49747</v>
       </c>
       <c r="D32">
-        <f>C32/1000</f>
+        <f t="shared" si="1"/>
         <v>49.747</v>
       </c>
     </row>
@@ -6132,7 +7479,7 @@
         <v>28875</v>
       </c>
       <c r="D33">
-        <f>C33/1000</f>
+        <f t="shared" si="1"/>
         <v>28.875</v>
       </c>
     </row>
@@ -6144,31 +7491,31 @@
         <v>9257</v>
       </c>
       <c r="D34">
-        <f>C34/1000</f>
+        <f t="shared" si="1"/>
         <v>9.2569999999999997</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>5807</v>
       </c>
       <c r="D35">
-        <f>C35/1000</f>
+        <f t="shared" si="1"/>
         <v>5.8070000000000004</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>5303</v>
       </c>
       <c r="D36">
-        <f>C36/1000</f>
+        <f t="shared" si="1"/>
         <v>5.3029999999999999</v>
       </c>
     </row>
@@ -6180,19 +7527,19 @@
         <v>22992</v>
       </c>
       <c r="D37">
-        <f>C37/1000</f>
+        <f t="shared" si="1"/>
         <v>22.992000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>6333</v>
       </c>
       <c r="D38">
-        <f>C38/1000</f>
+        <f t="shared" si="1"/>
         <v>6.3330000000000002</v>
       </c>
     </row>
@@ -6204,31 +7551,31 @@
         <v>5751</v>
       </c>
       <c r="D39">
-        <f>C39/1000</f>
+        <f t="shared" si="1"/>
         <v>5.7510000000000003</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>15200</v>
       </c>
       <c r="D40">
-        <f>C40/1000</f>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>81312</v>
       </c>
       <c r="D41">
-        <f>C41/1000</f>
+        <f t="shared" si="1"/>
         <v>81.311999999999998</v>
       </c>
     </row>
@@ -6261,8 +7608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6275,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
@@ -6398,7 +7745,7 @@
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>Capacity!B12</f>
-        <v>Sweeden</v>
+        <v>Sweden</v>
       </c>
       <c r="C11">
         <v>16268</v>
@@ -6478,12 +7825,12 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>430490</v>
@@ -6491,7 +7838,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>422553</v>
@@ -6571,7 +7918,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>102443</v>
@@ -6587,7 +7934,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>82943</v>
@@ -6595,7 +7942,7 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>562451</v>
@@ -6615,8 +7962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6630,12 +7977,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <f>Production!C28/Capacity!C27</f>
@@ -6644,7 +7991,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <f>Production!C29/Capacity!C28</f>
@@ -6734,7 +8081,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <f>Production!C39/Capacity!C38</f>
@@ -6752,7 +8099,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f>Production!C41/Capacity!C40</f>
@@ -6761,7 +8108,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <f>Production!C42/Capacity!C41</f>
@@ -6773,12 +8120,12 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>4.3331214044730659</v>
@@ -6794,7 +8141,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>3.6748215374681639</v>
@@ -6802,7 +8149,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>3.5013135314068204</v>
@@ -6818,7 +8165,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>2.61890150209996</v>
@@ -6834,7 +8181,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>2.4747284878863827</v>
@@ -6904,4 +8251,970 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>164061</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D16" si="0">C2/1000</f>
+        <v>164.06100000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>87544</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>87.543999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>55876</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>55.875999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>32878</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>32.878</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>22988</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>22.988</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>20488</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>20.488</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>13113</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>13.113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>12313</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>12.313000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>12294</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>12.294</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9636</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9.6359999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>6631</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6.6310000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6516</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6.516</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>5798</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>5.798</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>5521</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.5209999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>5123</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.1230000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>SUM(D2:D5)</f>
+        <v>340.35899999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>513.93899999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>148.983</v>
+      </c>
+      <c r="D27">
+        <v>164.06100000000001</v>
+      </c>
+      <c r="E27">
+        <v>148.983</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12.294</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="4">
+        <v>21626</v>
+      </c>
+      <c r="K27">
+        <v>21.626000000000001</v>
+      </c>
+      <c r="L27">
+        <v>2.0135940409683428</v>
+      </c>
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="4">
+        <v>14126</v>
+      </c>
+      <c r="Q27">
+        <v>14.125999999999999</v>
+      </c>
+      <c r="R27">
+        <v>2.6947729874093858</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>81.311999999999998</v>
+      </c>
+      <c r="D28">
+        <v>87.543999999999997</v>
+      </c>
+      <c r="E28">
+        <v>81.311999999999998</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="H28" s="3">
+        <v>12.313000000000001</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4">
+        <v>26446</v>
+      </c>
+      <c r="K28">
+        <v>26.446000000000002</v>
+      </c>
+      <c r="L28">
+        <v>2.2223529411764709</v>
+      </c>
+      <c r="O28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" s="4">
+        <v>40310</v>
+      </c>
+      <c r="Q28">
+        <v>40.31</v>
+      </c>
+      <c r="R28">
+        <v>2.6519736842105264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>49.747</v>
+      </c>
+      <c r="D29">
+        <v>55.875999999999998</v>
+      </c>
+      <c r="E29">
+        <v>49.747</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>148.983</v>
+      </c>
+      <c r="H29" s="3">
+        <v>164.06100000000001</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>180665</v>
+      </c>
+      <c r="K29">
+        <v>180.66499999999999</v>
+      </c>
+      <c r="L29">
+        <v>1.212655135149648</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="4">
+        <v>16268</v>
+      </c>
+      <c r="Q29">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="R29">
+        <v>2.5687667771988001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>28.875</v>
+      </c>
+      <c r="D30">
+        <v>32.878</v>
+      </c>
+      <c r="E30">
+        <v>28.875</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.242</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="4">
+        <v>14126</v>
+      </c>
+      <c r="K30">
+        <v>14.125999999999999</v>
+      </c>
+      <c r="L30">
+        <v>2.6947729874093858</v>
+      </c>
+      <c r="O30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="4">
+        <v>190719</v>
+      </c>
+      <c r="Q30">
+        <v>190.71899999999999</v>
+      </c>
+      <c r="R30">
+        <v>2.345520956316411</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>22.992000000000001</v>
+      </c>
+      <c r="D31">
+        <v>22.988</v>
+      </c>
+      <c r="E31">
+        <v>22.992000000000001</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3">
+        <v>11.861000000000001</v>
+      </c>
+      <c r="H31" s="3">
+        <v>13.113</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="4">
+        <v>21249</v>
+      </c>
+      <c r="K31">
+        <v>21.248999999999999</v>
+      </c>
+      <c r="L31">
+        <v>1.7915015597335804</v>
+      </c>
+      <c r="O31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="4">
+        <v>26446</v>
+      </c>
+      <c r="Q31">
+        <v>26.446000000000002</v>
+      </c>
+      <c r="R31">
+        <v>2.2223529411764709</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>15.2</v>
+      </c>
+      <c r="D32">
+        <v>20.488</v>
+      </c>
+      <c r="E32">
+        <v>15.2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
+        <v>49.747</v>
+      </c>
+      <c r="H32" s="3">
+        <v>55.875999999999998</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="4">
+        <v>79206</v>
+      </c>
+      <c r="K32">
+        <v>79.206000000000003</v>
+      </c>
+      <c r="L32">
+        <v>1.5921764126479989</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="4">
+        <v>11608</v>
+      </c>
+      <c r="Q32">
+        <v>11.608000000000001</v>
+      </c>
+      <c r="R32">
+        <v>2.1889496511408639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>11.861000000000001</v>
+      </c>
+      <c r="D33">
+        <v>13.113</v>
+      </c>
+      <c r="E33">
+        <v>11.861000000000001</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>28.875</v>
+      </c>
+      <c r="H33" s="3">
+        <v>32.878</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4">
+        <v>37361</v>
+      </c>
+      <c r="K33">
+        <v>37.360999999999997</v>
+      </c>
+      <c r="L33">
+        <v>1.2938874458874459</v>
+      </c>
+      <c r="O33" t="s">
+        <v>11</v>
+      </c>
+      <c r="P33" s="4">
+        <v>49325</v>
+      </c>
+      <c r="Q33">
+        <v>49.325000000000003</v>
+      </c>
+      <c r="R33">
+        <v>2.1453114126652748</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>11.9</v>
+      </c>
+      <c r="D34">
+        <v>12.313000000000001</v>
+      </c>
+      <c r="E34">
+        <v>11.9</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9.2569999999999997</v>
+      </c>
+      <c r="H34" s="3">
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4">
+        <v>14844</v>
+      </c>
+      <c r="K34">
+        <v>14.843999999999999</v>
+      </c>
+      <c r="L34">
+        <v>1.6035432645565517</v>
+      </c>
+      <c r="O34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="4">
+        <v>11652</v>
+      </c>
+      <c r="Q34">
+        <v>11.651999999999999</v>
+      </c>
+      <c r="R34">
+        <v>2.0260824204486174</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>10.74</v>
+      </c>
+      <c r="D35">
+        <v>12.294</v>
+      </c>
+      <c r="E35">
+        <v>10.74</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5.8070000000000004</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5.798</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10858</v>
+      </c>
+      <c r="K35">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="L35">
+        <v>1.8698122955054244</v>
+      </c>
+      <c r="O35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P35" s="4">
+        <v>21626</v>
+      </c>
+      <c r="Q35">
+        <v>21.626000000000001</v>
+      </c>
+      <c r="R35">
+        <v>2.0135940409683428</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>9.2569999999999997</v>
+      </c>
+      <c r="D36">
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="E36">
+        <v>9.2569999999999997</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="4">
+        <v>11608</v>
+      </c>
+      <c r="K36">
+        <v>11.608000000000001</v>
+      </c>
+      <c r="L36">
+        <v>2.1889496511408639</v>
+      </c>
+      <c r="O36" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="4">
+        <v>10858</v>
+      </c>
+      <c r="Q36">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="R36">
+        <v>1.8698122955054244</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>6.3330000000000002</v>
+      </c>
+      <c r="D37">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="E37">
+        <v>6.3330000000000002</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="3">
+        <v>22.992000000000001</v>
+      </c>
+      <c r="H37" s="3">
+        <v>22.988</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="4">
+        <v>49325</v>
+      </c>
+      <c r="K37">
+        <v>49.325000000000003</v>
+      </c>
+      <c r="L37">
+        <v>2.1453114126652748</v>
+      </c>
+      <c r="O37" t="s">
+        <v>7</v>
+      </c>
+      <c r="P37" s="4">
+        <v>21249</v>
+      </c>
+      <c r="Q37">
+        <v>21.248999999999999</v>
+      </c>
+      <c r="R37">
+        <v>1.7915015597335804</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="D38">
+        <v>6.516</v>
+      </c>
+      <c r="E38">
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6.3330000000000002</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="4">
+        <v>16268</v>
+      </c>
+      <c r="K38">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="L38">
+        <v>2.5687667771988001</v>
+      </c>
+      <c r="O38" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="4">
+        <v>14844</v>
+      </c>
+      <c r="Q38">
+        <v>14.843999999999999</v>
+      </c>
+      <c r="R38">
+        <v>1.6035432645565517</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>5.8070000000000004</v>
+      </c>
+      <c r="D39">
+        <v>5.798</v>
+      </c>
+      <c r="E39">
+        <v>5.8070000000000004</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5.7510000000000003</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6.516</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="4">
+        <v>11652</v>
+      </c>
+      <c r="K39">
+        <v>11.651999999999999</v>
+      </c>
+      <c r="L39">
+        <v>2.0260824204486174</v>
+      </c>
+      <c r="O39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="4">
+        <v>79206</v>
+      </c>
+      <c r="Q39">
+        <v>79.206000000000003</v>
+      </c>
+      <c r="R39">
+        <v>1.5921764126479989</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>5.242</v>
+      </c>
+      <c r="D40">
+        <v>5.5209999999999999</v>
+      </c>
+      <c r="E40">
+        <v>5.242</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="H40" s="3">
+        <v>20.488</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="4">
+        <v>40310</v>
+      </c>
+      <c r="K40">
+        <v>40.31</v>
+      </c>
+      <c r="L40">
+        <v>2.6519736842105264</v>
+      </c>
+      <c r="O40" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="4">
+        <v>37361</v>
+      </c>
+      <c r="Q40">
+        <v>37.360999999999997</v>
+      </c>
+      <c r="R40">
+        <v>1.2938874458874459</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="D41">
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="E41">
+        <v>5.3029999999999999</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3">
+        <v>81.311999999999998</v>
+      </c>
+      <c r="H41" s="3">
+        <v>87.543999999999997</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="4">
+        <v>190719</v>
+      </c>
+      <c r="K41">
+        <v>190.71899999999999</v>
+      </c>
+      <c r="L41">
+        <v>2.345520956316411</v>
+      </c>
+      <c r="O41" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="4">
+        <v>180665</v>
+      </c>
+      <c r="Q41">
+        <v>180.66499999999999</v>
+      </c>
+      <c r="R41">
+        <v>1.212655135149648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>